--- a/APP TNA Prov/Dataset/Datos Accesorios/IPC Nacional.xlsx
+++ b/APP TNA Prov/Dataset/Datos Accesorios/IPC Nacional.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valen\Google Drive\Machine Learning\ML - GitHub\APP TNA Prov\Dataset\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valen\Google Drive\Machine Learning\ML - GitHub\APP TNA Prov\Dataset\Datos Accesorios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4551F8A-C2FC-4582-A749-4779D7AE3F07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B847A5-2BEC-42DE-A373-8172FED49E7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00F65C9E-E378-4C81-A35E-04E1D43E3AF9}"/>
   </bookViews>
@@ -45,6 +45,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -80,9 +83,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7457825-88BB-481B-BAAE-986550AE3CF7}">
-  <dimension ref="A1:B132"/>
+  <dimension ref="A1:B133"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="A132" sqref="A132"/>
+      <selection activeCell="B133" sqref="B133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1457,6 +1461,18 @@
       <c r="A132" s="1">
         <v>44136</v>
       </c>
+      <c r="B132">
+        <v>363.53809999999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B133" s="2">
+        <f>+B132*1.04</f>
+        <v>378.07962400000002</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
